--- a/data/long_dif/P18_4-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_4-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 21,68</t>
+          <t>12,56; 20,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,85; 39,54</t>
+          <t>28,96; 41,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,21; 31,27</t>
+          <t>22,09; 30,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 18,91</t>
+          <t>16,35; 26,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,16; 42,3</t>
+          <t>12,26; 18,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,36; 32,99</t>
+          <t>33,76; 42,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 18,63</t>
+          <t>25,29; 32,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,97; 38,97</t>
+          <t>22,24; 31,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,03; 30,65</t>
+          <t>13,4; 18,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32,69; 40,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,79; 30,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 27,66</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>35,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 39,07</t>
+          <t>28,81; 38,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 50,29</t>
+          <t>38,34; 49,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,88; 47,39</t>
+          <t>37,12; 47,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 40,83</t>
+          <t>43,57; 58,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,43; 44,27</t>
+          <t>32,75; 41,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,14; 47,6</t>
+          <t>34,04; 43,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,99; 38,54</t>
+          <t>39,0; 47,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,62; 45,99</t>
+          <t>33,96; 43,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,36; 46,06</t>
+          <t>31,84; 38,59</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37,57; 44,71</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 45,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40,04; 49,73</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,83%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>49,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,57; 55,33</t>
+          <t>44,94; 55,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 27,91</t>
+          <t>16,96; 28,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 37,96</t>
+          <t>26,52; 38,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,4; 52,51</t>
+          <t>22,35; 33,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,27</t>
+          <t>43,3; 52,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,78</t>
+          <t>19,81; 27,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,42; 52,45</t>
+          <t>25,16; 32,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 26,03</t>
+          <t>29,66; 39,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 33,42</t>
+          <t>45,66; 52,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,8; 26,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27,27; 33,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27,92; 35,91</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 28,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,0; 40,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,2; 35,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 21,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,5; 41,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,11; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 22,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,23; 39,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,36; 32,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,16; 42,97</t>
+          <t>12,53; 20,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,64; 52,94</t>
+          <t>29,39; 41,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,61; 50,37</t>
+          <t>24,52; 34,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,76; 43,41</t>
+          <t>18,9; 33,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,16; 45,23</t>
+          <t>14,22; 21,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,48; 44,44</t>
+          <t>31,57; 41,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,34; 41,57</t>
+          <t>23,78; 32,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,77; 48,19</t>
+          <t>18,57; 30,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,03; 46,7</t>
+          <t>14,33; 20,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 39,52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,68; 32,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 28,86</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>37,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,04; 51,57</t>
+          <t>31,67; 43,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,61; 26,08</t>
+          <t>38,54; 51,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,78; 30,69</t>
+          <t>39,42; 50,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,0; 49,56</t>
+          <t>39,08; 52,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,22; 29,5</t>
+          <t>33,97; 44,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,5; 35,95</t>
+          <t>34,8; 45,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,79; 48,43</t>
+          <t>35,54; 44,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 25,84</t>
+          <t>35,59; 47,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,17; 31,8</t>
+          <t>33,85; 41,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38,46; 46,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39,42; 46,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39,0; 47,99</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32,6%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 17,25</t>
+          <t>40,93; 52,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,34; 56,16</t>
+          <t>16,41; 26,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,62; 30,14</t>
+          <t>20,8; 31,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,47</t>
+          <t>23,87; 34,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,71; 46,66</t>
+          <t>39,12; 48,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,38; 38,63</t>
+          <t>18,69; 29,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,32</t>
+          <t>27,56; 36,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,09; 48,08</t>
+          <t>30,6; 41,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,92; 32,37</t>
+          <t>41,02; 48,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,56; 26,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 31,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 37,17</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,98; 59,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,2; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,38; 60,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,1; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,72; 48,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,57; 51,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,07; 50,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,2; 47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,99; 52,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>31,17%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,08; 59,71</t>
+          <t>4,59; 17,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,01; 24,72</t>
+          <t>32,45; 58,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,9; 41,68</t>
+          <t>14,08; 29,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>39,75; 60,12</t>
+          <t>25,85; 59,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 35,51</t>
+          <t>7,2; 19,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,67; 36,04</t>
+          <t>27,82; 48,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,18; 56,94</t>
+          <t>20,98; 37,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,34; 26,71</t>
+          <t>12,64; 30,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,31; 35,52</t>
+          <t>6,9; 16,52</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>33,18; 49,69</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>19,14; 31,42</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 40,32</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>42,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>37,83%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,59; 20,48</t>
+          <t>33,12; 61,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>30,6; 39,28</t>
+          <t>27,9; 51,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,2; 30,36</t>
+          <t>38,43; 59,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,17</t>
+          <t>21,11; 59,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>33,78; 40,17</t>
+          <t>31,38; 50,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,05; 31,59</t>
+          <t>27,2; 47,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,96; 18,05</t>
+          <t>34,02; 52,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>33,23; 38,53</t>
+          <t>39,85; 60,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,08</t>
+          <t>35,21; 52,07</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>30,83; 46,03</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38,94; 53,05</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33,67; 54,9</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>46,24%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32,38; 40,28</t>
+          <t>31,22; 57,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40,46; 48,65</t>
+          <t>9,74; 26,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>40,68; 47,87</t>
+          <t>19,83; 43,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,6</t>
+          <t>12,95; 34,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,98; 42,56</t>
+          <t>36,83; 56,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,67; 44,85</t>
+          <t>17,36; 35,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>34,11; 39,25</t>
+          <t>21,44; 37,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>39,39; 44,76</t>
+          <t>20,24; 39,86</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,65; 45,22</t>
+          <t>38,21; 54,54</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 27,11</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>23,14; 36,8</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>17,87; 33,55</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,48; 51,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,36; 32,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>43,89; 50,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,81; 32,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,68; 50,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>26,87; 31,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>12,78; 18,27</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>31,8; 40,32</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 30,0</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 29,43</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 18,42</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 40,66</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 31,24</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 28,09</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 17,49</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>34,07; 39,25</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 29,74</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 27,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>37,94%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>38,93%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>42,97%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>43,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>32,81; 40,61</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 47,72</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>40,17; 47,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>42,45; 52,91</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>34,98; 41,03</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>35,62; 42,07</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>38,89; 44,45</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>37,2; 44,59</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 39,64</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,61; 43,81</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>40,68; 45,33</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 47,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>28,92%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>23,66%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 51,9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 24,58</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 33,17</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 31,8</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>42,69; 49,09</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 26,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 32,44</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 38,21</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>44,57; 49,52</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 24,59</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>27,17; 31,74</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>28,79; 34,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
